--- a/target/test-classes/register.xlsx
+++ b/target/test-classes/register.xlsx
@@ -438,7 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -634,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>18813989560</v>
+        <v>18823989560</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
